--- a/quizzes/ls03_line_graphs/ls03_line_graphs_theory_quiz/quiz.xlsx
+++ b/quizzes/ls03_line_graphs/ls03_line_graphs_theory_quiz/quiz.xlsx
@@ -707,14 +707,16 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Specifically fit!
-The &lt;code&gt;linetype&lt;/code&gt; argument can be set with either integers or names from a select list.</t>
+          <t>Great!&lt;/p&gt;
+&lt;p&gt;The &lt;code&gt;linetype&lt;/code&gt; argument can be set with either integers or names from a select list.&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>Both are right!
-The &lt;code&gt;linetype&lt;/code&gt; argument can be set with either integers or names from a select list.</t>
+The &lt;code&gt;linetype&lt;/code&gt; argument can be set with either integers or names from a select list.&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;</t>
         </is>
       </c>
     </row>
@@ -765,23 +767,14 @@
           <t>Double plus good!
 Both a specific list of integers and a specific list of names can be used with the &lt;code&gt;linetype&lt;/code&gt; argument to make the line type of your choice.
 (There is no &lt;code&gt;geom_dotted_line()&lt;/code&gt;.)&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;image&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## function (x, ...) 
-## UseMethod("image")
-## &amp;lt;bytecode: 0x7fd4582051e0&amp;gt;
-## &amp;lt;environment: namespace:graphics&amp;gt;&lt;/code&gt;&lt;/pre&gt;&lt;/div&gt;</t>
+&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>That was tricky!
-Both a specific list of integers and a specific list of names can be used with the &lt;code&gt;linetype&lt;/code&gt; argument to make the line type of your choice.
+          <t>Both a specific list of integers and a specific list of names can be used with the &lt;code&gt;linetype&lt;/code&gt; argument to make the line type of your choice.
 (There is no &lt;code&gt;geom_dotted_line()&lt;/code&gt;.)&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;image&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## function (x, ...) 
-## UseMethod("image")
-## &amp;lt;bytecode: 0x7fd4582051e0&amp;gt;
-## &amp;lt;environment: namespace:graphics&amp;gt;&lt;/code&gt;&lt;/pre&gt;&lt;/div&gt;</t>
+&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;</t>
         </is>
       </c>
     </row>
@@ -825,7 +818,7 @@
        mapping = aes(x = time, y = temp)) + 
   geom_line() + 
   geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1NWDSnomtAjZXwNibKsAEvKuqnpMCs76R" width="672"&gt;</t>
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-7-1.png" width="672"&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -836,7 +829,7 @@
        mapping = aes(x = time, y = temp)) + 
   geom_line() + 
   geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1S_MojzGdTMwjO0Gf0jPAeydjKOPwPlgK" width="672"&gt;</t>
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-8-1.png" width="672"&gt;</t>
         </is>
       </c>
     </row>
@@ -904,7 +897,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;p&gt;The linetype argument can only be used as a fixed aesthetic, not an aesthetic mapping.&lt;/p&gt;</t>
+          <t>&lt;p&gt;The &lt;code&gt;linetype&lt;/code&gt; argument can only be used as a fixed aesthetic, not an aesthetic mapping.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1010,7 +1003,7 @@
 ggplot(data = afg_pop, 
        mapping = aes(x = year, y = population)) +
   geom_line()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=14bBfg_EtdBrhZ-AJ8gZt6a6U7eJcQ0pK" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-15-1.png" width="672"&gt;&lt;/p&gt;
 &lt;p&gt;We can control position of scale break of continuous x &amp;amp; y axes with &lt;code&gt;scale_*_countinuos&lt;/code&gt;.&lt;/p&gt;
 &lt;p&gt;Which function can we use to make a numeric vector for scale breaks?&lt;/p&gt;</t>
         </is>
@@ -1102,12 +1095,21 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-12" class="section level2"&gt;&lt;/div&gt;</t>
+          <t>Great memory!&lt;/p&gt;
+&lt;p&gt;These can be confusing. Note that {ggplot2} scale functions start with &lt;code&gt;scale_*&lt;/code&gt; where &lt;code&gt;*&lt;/code&gt; is the name of the aesthetic mapping being scaled.
+There are many scale functions like &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. that give you fine control of each aesthetic mapping.&lt;/p&gt;
+&lt;p&gt;Here is the general syntax used by scale functions:&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;See the &lt;em&gt;Scales&lt;/em&gt; section on the {ggplot2} &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;cheatsheet&lt;/a&gt; for more info.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-11" class="section level2"&gt;&lt;/div&gt;</t>
+          <t>These can be confusing. Note that {ggplot2} scale functions start with &lt;code&gt;scale_*&lt;/code&gt; where &lt;code&gt;*&lt;/code&gt; is the name of the aesthetic mapping being scaled.
+There are many scale functions like &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. that give you fine control of each aesthetic mapping.&lt;/p&gt;
+&lt;p&gt;Here is the general syntax used by scale functions:&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;See the &lt;em&gt;Scales&lt;/em&gt; section on the {ggplot2} &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;cheatsheet&lt;/a&gt; for more info.</t>
         </is>
       </c>
     </row>
@@ -1156,16 +1158,20 @@
       <c r="U14" t="inlineStr">
         <is>
           <t>Great memory!&lt;/p&gt;
-&lt;p&gt;It’s ease to get these mixed up.
-Note that {ggplot2} scale functions start with &lt;code&gt;scale_*&lt;/code&gt; where &lt;code&gt;*&lt;/code&gt; is the name of the aesthetic mapping being scaled.
-There are many scale functions like &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. that give you fine control of each aesthetic mapping.</t>
+&lt;p&gt;These can be confusing. Note that {ggplot2} scale functions start with &lt;code&gt;scale_*&lt;/code&gt; where &lt;code&gt;*&lt;/code&gt; is the name of the aesthetic mapping being scaled.
+There are many scale functions like &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. that give you fine control of each aesthetic mapping.&lt;/p&gt;
+&lt;p&gt;Here is the general syntax used by scale functions:&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;See the &lt;em&gt;Scales&lt;/em&gt; section on the {ggplot2} &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;cheatsheet&lt;/a&gt; for more info.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>It’s ease to get these mixed up.
-Note that {ggplot2} scale functions start with &lt;code&gt;scale_*&lt;/code&gt; where &lt;code&gt;*&lt;/code&gt; is the name of the aesthetic mapping being scaled.
-There are many scale functions like &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. that give you fine control of each aesthetic mapping.</t>
+          <t>These can be confusing. Note that {ggplot2} scale functions start with &lt;code&gt;scale_*&lt;/code&gt; where &lt;code&gt;*&lt;/code&gt; is the name of the aesthetic mapping being scaled.
+There are many scale functions like &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. that give you fine control of each aesthetic mapping.&lt;/p&gt;
+&lt;p&gt;Here is the general syntax used by scale functions:&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;See the &lt;em&gt;Scales&lt;/em&gt; section on the {ggplot2} &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;cheatsheet&lt;/a&gt; for more info.</t>
         </is>
       </c>
     </row>
